--- a/Data_GamesCompanies/Data_2211.xlsx
+++ b/Data_GamesCompanies/Data_2211.xlsx
@@ -37,7 +37,7 @@
     <t>Cumulative Revenue</t>
   </si>
   <si>
-    <t>RPD As of Nov 30, 2022</t>
+    <t>Revenue/Downloads</t>
   </si>
   <si>
     <t>Paid Downloads</t>
@@ -768,7 +768,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -835,25 +835,25 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1203,7 +1203,7 @@
     <col min="25" max="25" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1336,10 +1336,10 @@
         <v>81.2</v>
       </c>
       <c r="S2" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T2" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U2" s="5">
         <v>640000000</v>
@@ -1357,7 +1357,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1413,10 +1413,10 @@
         <v>58.34</v>
       </c>
       <c r="S3" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T3" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U3" s="5">
         <v>1220000000</v>
@@ -1434,7 +1434,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1490,10 +1490,10 @@
         <v>26.39</v>
       </c>
       <c r="S4" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T4" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U4" s="5">
         <v>739000000</v>
@@ -1511,7 +1511,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1565,10 +1565,10 @@
         <v>24.85</v>
       </c>
       <c r="S5" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T5" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U5" s="5">
         <v>192000000</v>
@@ -1586,7 +1586,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1642,10 +1642,10 @@
         <v>51.24</v>
       </c>
       <c r="S6" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T6" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U6" s="5">
         <v>353000000</v>
@@ -1663,7 +1663,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1719,10 +1719,10 @@
         <v>61.23</v>
       </c>
       <c r="S7" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T7" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U7" s="5">
         <v>1790000000</v>
@@ -1740,7 +1740,7 @@
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1796,10 +1796,10 @@
         <v>56.25</v>
       </c>
       <c r="S8" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T8" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U8" s="5">
         <v>243000000</v>
@@ -1817,7 +1817,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1873,10 +1873,10 @@
         <v>54.73</v>
       </c>
       <c r="S9" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T9" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U9" s="5">
         <v>413000000</v>
@@ -1894,7 +1894,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1950,10 +1950,10 @@
         <v>37.69</v>
       </c>
       <c r="S10" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T10" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U10" s="5">
         <v>312000000</v>
@@ -1971,7 +1971,7 @@
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2027,10 +2027,10 @@
         <v>28.99</v>
       </c>
       <c r="S11" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T11" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U11" s="5">
         <v>376000000</v>
@@ -2048,7 +2048,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2104,10 +2104,10 @@
         <v>46.67</v>
       </c>
       <c r="S12" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T12" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U12" s="5">
         <v>139000000</v>
@@ -2125,7 +2125,7 @@
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2181,10 +2181,10 @@
         <v>55.49</v>
       </c>
       <c r="S13" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T13" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U13" s="5">
         <v>105000000</v>
@@ -2202,7 +2202,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2258,10 +2258,10 @@
         <v>34.06</v>
       </c>
       <c r="S14" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T14" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U14" s="5">
         <v>127000000</v>
@@ -2279,7 +2279,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2335,10 +2335,10 @@
         <v>75.16</v>
       </c>
       <c r="S15" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T15" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U15" s="5">
         <v>659000000</v>
@@ -2356,7 +2356,7 @@
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2412,10 +2412,10 @@
         <v>24.9</v>
       </c>
       <c r="S16" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T16" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U16" s="5">
         <v>22200000</v>
@@ -2433,7 +2433,7 @@
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2487,10 +2487,10 @@
         <v>73.44</v>
       </c>
       <c r="S17" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T17" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U17" s="5">
         <v>86200000</v>
@@ -2508,7 +2508,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2564,10 +2564,10 @@
         <v>79.37</v>
       </c>
       <c r="S18" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T18" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U18" s="5">
         <v>401000000</v>
@@ -2585,7 +2585,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2641,10 +2641,10 @@
         <v>120.4</v>
       </c>
       <c r="S19" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T19" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U19" s="5">
         <v>120000000</v>
@@ -2662,7 +2662,7 @@
         <v>81</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2718,10 +2718,10 @@
         <v>58.09</v>
       </c>
       <c r="S20" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T20" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U20" s="5">
         <v>41000000</v>
@@ -2739,7 +2739,7 @@
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2795,10 +2795,10 @@
         <v>25.53</v>
       </c>
       <c r="S21" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T21" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U21" s="5">
         <v>32700000</v>
@@ -2816,7 +2816,7 @@
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2872,10 +2872,10 @@
         <v>83.1</v>
       </c>
       <c r="S22" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T22" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U22" s="5">
         <v>535000000</v>
@@ -2893,7 +2893,7 @@
         <v>88</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2949,10 +2949,10 @@
         <v>66.08</v>
       </c>
       <c r="S23" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T23" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U23" s="5">
         <v>182000000</v>
@@ -2970,7 +2970,7 @@
         <v>90</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -3026,10 +3026,10 @@
         <v>61.31</v>
       </c>
       <c r="S24" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T24" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U24" s="5">
         <v>185000000</v>
@@ -3047,7 +3047,7 @@
         <v>93</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -3103,10 +3103,10 @@
         <v>74.41</v>
       </c>
       <c r="S25" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T25" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U25" s="5">
         <v>433000000</v>
@@ -3124,7 +3124,7 @@
         <v>95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -3180,10 +3180,10 @@
         <v>51.65</v>
       </c>
       <c r="S26" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T26" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U26" s="5">
         <v>734000000</v>
@@ -3201,7 +3201,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -3257,10 +3257,10 @@
         <v>23.45</v>
       </c>
       <c r="S27" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T27" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U27" s="5">
         <v>80200000</v>
@@ -3334,10 +3334,10 @@
         <v>18.07</v>
       </c>
       <c r="S28" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T28" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U28" s="5">
         <v>44900000</v>
@@ -3411,10 +3411,10 @@
         <v>52.29</v>
       </c>
       <c r="S29" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T29" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U29" s="5">
         <v>22900000</v>
@@ -3488,10 +3488,10 @@
         <v>40.44</v>
       </c>
       <c r="S30" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T30" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U30" s="5">
         <v>614000000</v>
@@ -3563,10 +3563,10 @@
         <v>28.77</v>
       </c>
       <c r="S31" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T31" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U31" s="5">
         <v>38600000</v>
@@ -3640,10 +3640,10 @@
         <v>58.61</v>
       </c>
       <c r="S32" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T32" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U32" s="5">
         <v>360000000</v>
@@ -3715,10 +3715,10 @@
         <v>72.42</v>
       </c>
       <c r="S33" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T33" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U33" s="5">
         <v>226000000</v>
@@ -3790,10 +3790,10 @@
         <v>29.11</v>
       </c>
       <c r="S34" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T34" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U34" s="5">
         <v>38200000</v>
@@ -3867,10 +3867,10 @@
         <v>17.02</v>
       </c>
       <c r="S35" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T35" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U35" s="5">
         <v>2250000</v>
@@ -3944,10 +3944,10 @@
         <v>83.7</v>
       </c>
       <c r="S36" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T36" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U36" s="5">
         <v>79000000</v>
@@ -4021,10 +4021,10 @@
         <v>53.98</v>
       </c>
       <c r="S37" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T37" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U37" s="5">
         <v>72300000</v>
@@ -4098,10 +4098,10 @@
         <v>109.36</v>
       </c>
       <c r="S38" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T38" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U38" s="5">
         <v>116000000</v>
@@ -4175,10 +4175,10 @@
         <v>65.78</v>
       </c>
       <c r="S39" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T39" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U39" s="5">
         <v>28000000</v>
@@ -4252,10 +4252,10 @@
         <v>19.92</v>
       </c>
       <c r="S40" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T40" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U40" s="5">
         <v>4450000</v>
@@ -4329,10 +4329,10 @@
         <v>68.59</v>
       </c>
       <c r="S41" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T41" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U41" s="5">
         <v>35800000</v>
@@ -4406,10 +4406,10 @@
         <v>61.69</v>
       </c>
       <c r="S42" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T42" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U42" s="5">
         <v>70400000</v>
@@ -4483,10 +4483,10 @@
         <v>44.11</v>
       </c>
       <c r="S43" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T43" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U43" s="5">
         <v>33400000</v>
@@ -4560,10 +4560,10 @@
         <v>27.5</v>
       </c>
       <c r="S44" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T44" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U44" s="5">
         <v>37900000</v>
@@ -4637,10 +4637,10 @@
         <v>45.16</v>
       </c>
       <c r="S45" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T45" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U45" s="5">
         <v>3190000</v>
@@ -4714,10 +4714,10 @@
         <v>73.9</v>
       </c>
       <c r="S46" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T46" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U46" s="5">
         <v>280000000</v>
@@ -4789,10 +4789,10 @@
         <v>42.83</v>
       </c>
       <c r="S47" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T47" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U47" s="5">
         <v>17900000</v>
@@ -4866,10 +4866,10 @@
         <v>174.81</v>
       </c>
       <c r="S48" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T48" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U48" s="5">
         <v>29600000</v>
@@ -4941,10 +4941,10 @@
         <v>17.36</v>
       </c>
       <c r="S49" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T49" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U49" s="5">
         <v>17400000</v>
@@ -5018,10 +5018,10 @@
         <v>31.08</v>
       </c>
       <c r="S50" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T50" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U50" s="5">
         <v>11600000</v>
@@ -5095,10 +5095,10 @@
         <v>27.95</v>
       </c>
       <c r="S51" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T51" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U51" s="5">
         <v>11100000</v>
@@ -5172,10 +5172,10 @@
         <v>17.67</v>
       </c>
       <c r="S52" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T52" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U52" s="5">
         <v>56800000</v>
@@ -5249,10 +5249,10 @@
         <v>78.18</v>
       </c>
       <c r="S53" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T53" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U53" s="5">
         <v>113000000</v>
@@ -5326,10 +5326,10 @@
         <v>39.01</v>
       </c>
       <c r="S54" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T54" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U54" s="5">
         <v>13800000</v>
@@ -5403,10 +5403,10 @@
         <v>73.58</v>
       </c>
       <c r="S55" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T55" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U55" s="5">
         <v>132000000</v>
@@ -5480,10 +5480,10 @@
         <v>37</v>
       </c>
       <c r="S56" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T56" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U56" s="5">
         <v>294000000</v>
@@ -5553,10 +5553,10 @@
         <v>18.73</v>
       </c>
       <c r="S57" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T57" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U57" s="5">
         <v>1450000</v>
@@ -5630,10 +5630,10 @@
         <v>192.23</v>
       </c>
       <c r="S58" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T58" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U58" s="5">
         <v>7790000</v>
@@ -5707,10 +5707,10 @@
         <v>43.51</v>
       </c>
       <c r="S59" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T59" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U59" s="5">
         <v>4320000</v>
@@ -5784,10 +5784,10 @@
         <v>13.95</v>
       </c>
       <c r="S60" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T60" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U60" s="5">
         <v>17200000</v>
@@ -5859,10 +5859,10 @@
         <v>123.41</v>
       </c>
       <c r="S61" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T61" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U61" s="5">
         <v>5570000</v>
@@ -5934,10 +5934,10 @@
         <v>86.17</v>
       </c>
       <c r="S62" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T62" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U62" s="5">
         <v>75300000</v>
@@ -6007,10 +6007,10 @@
         <v>36.1</v>
       </c>
       <c r="S63" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T63" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U63" s="5">
         <v>11300000</v>
@@ -6084,10 +6084,10 @@
         <v>98.75</v>
       </c>
       <c r="S64" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T64" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U64" s="5">
         <v>148000000</v>
@@ -6161,10 +6161,10 @@
         <v>39.37</v>
       </c>
       <c r="S65" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T65" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U65" s="5">
         <v>70500000</v>
@@ -6238,10 +6238,10 @@
         <v>43.1</v>
       </c>
       <c r="S66" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T66" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U66" s="5">
         <v>224000000</v>
@@ -6315,10 +6315,10 @@
         <v>20.88</v>
       </c>
       <c r="S67" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T67" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U67" s="5">
         <v>34400000</v>
@@ -6392,10 +6392,10 @@
         <v>133.64</v>
       </c>
       <c r="S68" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T68" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U68" s="5">
         <v>13300000</v>
@@ -6469,10 +6469,10 @@
         <v>18.22</v>
       </c>
       <c r="S69" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T69" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U69" s="5">
         <v>82600000</v>
@@ -6546,10 +6546,10 @@
         <v>24.19</v>
       </c>
       <c r="S70" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T70" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U70" s="5">
         <v>10200000</v>
@@ -6623,10 +6623,10 @@
         <v>21.03</v>
       </c>
       <c r="S71" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T71" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U71" s="5">
         <v>10900000</v>
@@ -6698,10 +6698,10 @@
         <v>6.29</v>
       </c>
       <c r="S72" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T72" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U72" s="5">
         <v>2930000</v>
@@ -6775,10 +6775,10 @@
         <v>32.12</v>
       </c>
       <c r="S73" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T73" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U73" s="5">
         <v>8740000</v>
@@ -6852,10 +6852,10 @@
         <v>38.25</v>
       </c>
       <c r="S74" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T74" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U74" s="5">
         <v>56700000</v>
@@ -6929,10 +6929,10 @@
         <v>48.05</v>
       </c>
       <c r="S75" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T75" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U75" s="5">
         <v>49400000</v>
@@ -7006,10 +7006,10 @@
         <v>32.96</v>
       </c>
       <c r="S76" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T76" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U76" s="5">
         <v>6620000</v>
@@ -7083,10 +7083,10 @@
         <v>47.46</v>
       </c>
       <c r="S77" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T77" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U77" s="5">
         <v>49900000</v>
@@ -7160,10 +7160,10 @@
         <v>26.01</v>
       </c>
       <c r="S78" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T78" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U78" s="5">
         <v>64500000</v>
@@ -7237,10 +7237,10 @@
         <v>26.87</v>
       </c>
       <c r="S79" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T79" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U79" s="5">
         <v>10600000</v>
@@ -7314,10 +7314,10 @@
         <v>42.03</v>
       </c>
       <c r="S80" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T80" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U80" s="5">
         <v>29000000</v>
@@ -7391,10 +7391,10 @@
         <v>32.51</v>
       </c>
       <c r="S81" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T81" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U81" s="5">
         <v>20600000</v>
@@ -7468,10 +7468,10 @@
         <v>43.07</v>
       </c>
       <c r="S82" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T82" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U82" s="5">
         <v>8270000</v>
@@ -7543,10 +7543,10 @@
         <v>10.3</v>
       </c>
       <c r="S83" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T83" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U83" s="5">
         <v>2900000</v>
@@ -7620,10 +7620,10 @@
         <v>46.58</v>
       </c>
       <c r="S84" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T84" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U84" s="5">
         <v>46000000</v>
@@ -7697,10 +7697,10 @@
         <v>72.73</v>
       </c>
       <c r="S85" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T85" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U85" s="5">
         <v>12700000</v>
@@ -7772,10 +7772,10 @@
         <v>16</v>
       </c>
       <c r="S86" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T86" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U86" s="5">
         <v>8120000</v>
@@ -7847,10 +7847,10 @@
         <v>6.4</v>
       </c>
       <c r="S87" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T87" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U87" s="5">
         <v>1390000</v>
@@ -7924,10 +7924,10 @@
         <v>24.2</v>
       </c>
       <c r="S88" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T88" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U88" s="5">
         <v>125000000</v>
@@ -7999,10 +7999,10 @@
         <v>36.18</v>
       </c>
       <c r="S89" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T89" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U89" s="5">
         <v>5240000</v>
@@ -8074,10 +8074,10 @@
         <v>58.97</v>
       </c>
       <c r="S90" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T90" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U90" s="5">
         <v>1460000</v>
@@ -8145,7 +8145,7 @@
         <v>669.64</v>
       </c>
       <c r="S91" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T91" s="11" t="s">
         <v>228</v>
@@ -8222,10 +8222,10 @@
         <v>61.15</v>
       </c>
       <c r="S92" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T92" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U92" s="5">
         <v>75300000</v>
@@ -8299,10 +8299,10 @@
         <v>13.82</v>
       </c>
       <c r="S93" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T93" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U93" s="5">
         <v>28700000</v>
@@ -8374,10 +8374,10 @@
         <v>22.03</v>
       </c>
       <c r="S94" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T94" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U94" s="5">
         <v>94100000</v>
@@ -8449,10 +8449,10 @@
         <v>36.43</v>
       </c>
       <c r="S95" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T95" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U95" s="5">
         <v>11300000</v>
@@ -8520,10 +8520,10 @@
         <v>10.65</v>
       </c>
       <c r="S96" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T96" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U96" s="5">
         <v>407000</v>
@@ -8597,10 +8597,10 @@
         <v>102.88</v>
       </c>
       <c r="S97" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T97" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U97" s="5">
         <v>123000000</v>
@@ -8674,10 +8674,10 @@
         <v>61.94</v>
       </c>
       <c r="S98" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T98" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U98" s="5">
         <v>15300000</v>
@@ -8751,10 +8751,10 @@
         <v>32.71</v>
       </c>
       <c r="S99" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T99" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U99" s="5">
         <v>14200000</v>
@@ -8828,10 +8828,10 @@
         <v>18.05</v>
       </c>
       <c r="S100" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T100" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U100" s="5">
         <v>14400000</v>
@@ -8905,10 +8905,10 @@
         <v>11.48</v>
       </c>
       <c r="S101" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T101" s="8">
-        <v>25569.04166667824</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U101" s="5">
         <v>6560000</v>
